--- a/evaluation/results/hybrid/pca/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.4347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.03745318352059925</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.06896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F2">
-        <v>0.0458295142071494</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2">
-        <v>0.03881755747984473</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.4943820224719102</v>
+        <v>0.708254429154568</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>534</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>534</v>
       </c>
       <c r="K2">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4970645792563601</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.951310861423221</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6529562982005142</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4347826086956522</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.03745318352059925</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.06896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4659235939760061</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.3609609077209467</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.4659235939760061</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.3609609077209467</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
